--- a/data_year/zb/教育/普通专科分学科学生数/普通专科分学科毕业生数.xlsx
+++ b/data_year/zb/教育/普通专科分学科学生数/普通专科分学科毕业生数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -557,7 +557,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>17.9</v>
+        <v>316.4</v>
       </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
@@ -573,157 +573,357 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11.6379</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3.2915</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.4066</v>
+      </c>
+      <c r="E3" t="n">
+        <v>5.958</v>
+      </c>
+      <c r="F3" t="n">
+        <v>45.7549</v>
+      </c>
+      <c r="G3" t="n">
+        <v>27.6239</v>
+      </c>
+      <c r="H3" t="n">
+        <v>25.2816</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.865</v>
+      </c>
+      <c r="J3" t="n">
+        <v>43.0851</v>
+      </c>
+      <c r="K3" t="n">
+        <v>10.6716</v>
+      </c>
       <c r="L3" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
+        <v>328.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4.6523</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.1036</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.8775</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.5955</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>8.5344</v>
+      </c>
+      <c r="R3" t="n">
+        <v>39.4674</v>
+      </c>
+      <c r="S3" t="n">
+        <v>15.2434</v>
+      </c>
+      <c r="T3" t="n">
+        <v>66.8498</v>
+      </c>
+      <c r="U3" t="n">
+        <v>4.0777</v>
+      </c>
+      <c r="V3" t="n">
+        <v>6.4209</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>12.7177</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.1195</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.6741</v>
+      </c>
+      <c r="E4" t="n">
+        <v>5.8308</v>
+      </c>
+      <c r="F4" t="n">
+        <v>43.0682</v>
+      </c>
+      <c r="G4" t="n">
+        <v>27.929</v>
+      </c>
+      <c r="H4" t="n">
+        <v>27.1421</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18.3755</v>
+      </c>
+      <c r="J4" t="n">
+        <v>38.8794</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.8371</v>
+      </c>
       <c r="L4" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+        <v>320.9</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4.5115</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.0955</v>
+      </c>
+      <c r="O4" t="n">
+        <v>4.6825</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.4649</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>8.1411</v>
+      </c>
+      <c r="R4" t="n">
+        <v>37.0232</v>
+      </c>
+      <c r="S4" t="n">
+        <v>15.0028</v>
+      </c>
+      <c r="T4" t="n">
+        <v>67.1797</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.3511</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6.2363</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>2013年</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>13.7055</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3.2218</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9514</v>
+      </c>
+      <c r="E5" t="n">
+        <v>5.6295</v>
+      </c>
+      <c r="F5" t="n">
+        <v>42.2106</v>
+      </c>
+      <c r="G5" t="n">
+        <v>30.8106</v>
+      </c>
+      <c r="H5" t="n">
+        <v>31.3035</v>
+      </c>
+      <c r="I5" t="n">
+        <v>17.6354</v>
+      </c>
+      <c r="J5" t="n">
+        <v>35.8222</v>
+      </c>
+      <c r="K5" t="n">
+        <v>10.4287</v>
+      </c>
       <c r="L5" t="n">
-        <v>94.8</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+        <v>318.7</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.5039</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.2388</v>
+      </c>
+      <c r="O5" t="n">
+        <v>4.0893</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.5114</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>7.8844</v>
+      </c>
+      <c r="R5" t="n">
+        <v>32.5817</v>
+      </c>
+      <c r="S5" t="n">
+        <v>15.4159</v>
+      </c>
+      <c r="T5" t="n">
+        <v>66.84690000000001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>4.8329</v>
+      </c>
+      <c r="V5" t="n">
+        <v>5.7604</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>2014年</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>14.4556</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3.0804</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.2684</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.5541</v>
+      </c>
+      <c r="F6" t="n">
+        <v>40.7139</v>
+      </c>
+      <c r="G6" t="n">
+        <v>31.7784</v>
+      </c>
+      <c r="H6" t="n">
+        <v>35.8518</v>
+      </c>
+      <c r="I6" t="n">
+        <v>17.1317</v>
+      </c>
+      <c r="J6" t="n">
+        <v>34.4016</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.2073</v>
+      </c>
       <c r="L6" t="n">
-        <v>119.5</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
+        <v>318</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.3188</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.3695</v>
+      </c>
+      <c r="O6" t="n">
+        <v>3.943</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>7.5017</v>
+      </c>
+      <c r="R6" t="n">
+        <v>29.4869</v>
+      </c>
+      <c r="S6" t="n">
+        <v>14.7302</v>
+      </c>
+      <c r="T6" t="n">
+        <v>67.4602</v>
+      </c>
+      <c r="U6" t="n">
+        <v>4.9103</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.4313</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>2015年</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>15.6838</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3.1308</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.1976</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.6327</v>
+      </c>
+      <c r="F7" t="n">
+        <v>40.6492</v>
+      </c>
+      <c r="G7" t="n">
+        <v>34.2616</v>
+      </c>
+      <c r="H7" t="n">
+        <v>36.5832</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18.9923</v>
+      </c>
+      <c r="J7" t="n">
+        <v>33.9108</v>
+      </c>
+      <c r="K7" t="n">
+        <v>10.5073</v>
+      </c>
       <c r="L7" t="n">
-        <v>160.2</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
+        <v>322.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.9795</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.405</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3.8764</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.4375</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>7.0232</v>
+      </c>
+      <c r="R7" t="n">
+        <v>29.2557</v>
+      </c>
+      <c r="S7" t="n">
+        <v>14.3578</v>
+      </c>
+      <c r="T7" t="n">
+        <v>69.3822</v>
+      </c>
+      <c r="U7" t="n">
+        <v>4.9832</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.0351</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -737,7 +937,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>204.8</v>
+        <v>329.8</v>
       </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
@@ -753,7 +953,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -767,7 +967,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>248.2</v>
+        <v>351.6</v>
       </c>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
@@ -783,7 +983,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -797,7 +997,7 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>286.3</v>
+        <v>366.4729</v>
       </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
@@ -813,7 +1013,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
@@ -827,7 +1027,7 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>285.6</v>
+        <v>363.8141</v>
       </c>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
@@ -843,7 +1043,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
@@ -857,7 +1057,7 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>316.4</v>
+        <v>376.6894</v>
       </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
@@ -873,502 +1073,32 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>11.6379</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3.2915</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.4066</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5.958</v>
-      </c>
-      <c r="F13" t="n">
-        <v>45.7549</v>
-      </c>
-      <c r="G13" t="n">
-        <v>27.6239</v>
-      </c>
-      <c r="H13" t="n">
-        <v>25.2816</v>
-      </c>
-      <c r="I13" t="n">
-        <v>19.865</v>
-      </c>
-      <c r="J13" t="n">
-        <v>43.0851</v>
-      </c>
-      <c r="K13" t="n">
-        <v>10.6716</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>328.5</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4.6523</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.1036</v>
-      </c>
-      <c r="O13" t="n">
-        <v>4.8775</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.5955</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>8.5344</v>
-      </c>
-      <c r="R13" t="n">
-        <v>39.4674</v>
-      </c>
-      <c r="S13" t="n">
-        <v>15.2434</v>
-      </c>
-      <c r="T13" t="n">
-        <v>66.8498</v>
-      </c>
-      <c r="U13" t="n">
-        <v>4.0777</v>
-      </c>
-      <c r="V13" t="n">
-        <v>6.4209</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>12.7177</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3.1195</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.6741</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.8308</v>
-      </c>
-      <c r="F14" t="n">
-        <v>43.0682</v>
-      </c>
-      <c r="G14" t="n">
-        <v>27.929</v>
-      </c>
-      <c r="H14" t="n">
-        <v>27.1421</v>
-      </c>
-      <c r="I14" t="n">
-        <v>18.3755</v>
-      </c>
-      <c r="J14" t="n">
-        <v>38.8794</v>
-      </c>
-      <c r="K14" t="n">
-        <v>10.8371</v>
-      </c>
-      <c r="L14" t="n">
-        <v>320.9</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4.5115</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1.0955</v>
-      </c>
-      <c r="O14" t="n">
-        <v>4.6825</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.4649</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>8.1411</v>
-      </c>
-      <c r="R14" t="n">
-        <v>37.0232</v>
-      </c>
-      <c r="S14" t="n">
-        <v>15.0028</v>
-      </c>
-      <c r="T14" t="n">
-        <v>67.1797</v>
-      </c>
-      <c r="U14" t="n">
-        <v>4.3511</v>
-      </c>
-      <c r="V14" t="n">
-        <v>6.2363</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>13.7055</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3.2218</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.9514</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.6295</v>
-      </c>
-      <c r="F15" t="n">
-        <v>42.2106</v>
-      </c>
-      <c r="G15" t="n">
-        <v>30.8106</v>
-      </c>
-      <c r="H15" t="n">
-        <v>31.3035</v>
-      </c>
-      <c r="I15" t="n">
-        <v>17.6354</v>
-      </c>
-      <c r="J15" t="n">
-        <v>35.8222</v>
-      </c>
-      <c r="K15" t="n">
-        <v>10.4287</v>
-      </c>
-      <c r="L15" t="n">
-        <v>318.7</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4.5039</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.2388</v>
-      </c>
-      <c r="O15" t="n">
-        <v>4.0893</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.5114</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>7.8844</v>
-      </c>
-      <c r="R15" t="n">
-        <v>32.5817</v>
-      </c>
-      <c r="S15" t="n">
-        <v>15.4159</v>
-      </c>
-      <c r="T15" t="n">
-        <v>66.84690000000001</v>
-      </c>
-      <c r="U15" t="n">
-        <v>4.8329</v>
-      </c>
-      <c r="V15" t="n">
-        <v>5.7604</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>14.4556</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.0804</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1.2684</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5.5541</v>
-      </c>
-      <c r="F16" t="n">
-        <v>40.7139</v>
-      </c>
-      <c r="G16" t="n">
-        <v>31.7784</v>
-      </c>
-      <c r="H16" t="n">
-        <v>35.8518</v>
-      </c>
-      <c r="I16" t="n">
-        <v>17.1317</v>
-      </c>
-      <c r="J16" t="n">
-        <v>34.4016</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10.2073</v>
-      </c>
-      <c r="L16" t="n">
-        <v>318</v>
-      </c>
-      <c r="M16" t="n">
-        <v>4.3188</v>
-      </c>
-      <c r="N16" t="n">
-        <v>1.3695</v>
-      </c>
-      <c r="O16" t="n">
-        <v>3.943</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.525</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>7.5017</v>
-      </c>
-      <c r="R16" t="n">
-        <v>29.4869</v>
-      </c>
-      <c r="S16" t="n">
-        <v>14.7302</v>
-      </c>
-      <c r="T16" t="n">
-        <v>67.4602</v>
-      </c>
-      <c r="U16" t="n">
-        <v>4.9103</v>
-      </c>
-      <c r="V16" t="n">
-        <v>5.4313</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>15.6838</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3.1308</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1.1976</v>
-      </c>
-      <c r="E17" t="n">
-        <v>5.6327</v>
-      </c>
-      <c r="F17" t="n">
-        <v>40.6492</v>
-      </c>
-      <c r="G17" t="n">
-        <v>34.2616</v>
-      </c>
-      <c r="H17" t="n">
-        <v>36.5832</v>
-      </c>
-      <c r="I17" t="n">
-        <v>18.9923</v>
-      </c>
-      <c r="J17" t="n">
-        <v>33.9108</v>
-      </c>
-      <c r="K17" t="n">
-        <v>10.5073</v>
-      </c>
-      <c r="L17" t="n">
-        <v>322.3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>3.9795</v>
-      </c>
-      <c r="N17" t="n">
-        <v>1.405</v>
-      </c>
-      <c r="O17" t="n">
-        <v>3.8764</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1.4375</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>7.0232</v>
-      </c>
-      <c r="R17" t="n">
-        <v>29.2557</v>
-      </c>
-      <c r="S17" t="n">
-        <v>14.3578</v>
-      </c>
-      <c r="T17" t="n">
-        <v>69.3822</v>
-      </c>
-      <c r="U17" t="n">
-        <v>4.9832</v>
-      </c>
-      <c r="V17" t="n">
-        <v>5.0351</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>329.8</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>351.6</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>366.4729</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>363.8141</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>376.6894</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+        <v>398.4094</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
